--- a/src/SIAkademik/SIAkademik.Web/wwwroot/file/importTemplate/Template Import Data Rombel.xlsx
+++ b/src/SIAkademik/SIAkademik.Web/wwwroot/file/importTemplate/Template Import Data Rombel.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="8IKWGqBbmElNqrj/Fgvq5p4Dk6VkEGiHyfIOepVGzJG42hjdBZEEG4z4TbzLAlsicEUT5iGkuFECwwZNq+KeOQ==" workbookSaltValue="3Qavubs50jRR00OvxKbLuQ==" workbookSpinCount="100000" lockStructure="1"/>
   <bookViews>
-    <workbookView windowWidth="20490" windowHeight="8205"/>
+    <workbookView windowWidth="19635" windowHeight="8205"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
     <t>Nama</t>
   </si>
   <si>
-    <t>Tahun Ajaran</t>
+    <t>Tahun Ajaran (Format : Tahun1/Tahun2. Contoh : 2025/2026)</t>
   </si>
   <si>
     <t>Semester</t>
@@ -677,7 +677,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -686,6 +686,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyProtection="1">
       <alignment vertical="center"/>
@@ -1231,7 +1234,7 @@
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="4" outlineLevelCol="5"/>
@@ -1245,11 +1248,11 @@
     <col min="7" max="16384" width="9.14285714285714" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" ht="45" spans="1:6">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
@@ -1266,39 +1269,39 @@
       </c>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="3"/>
-      <c r="B2" s="3"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="4"/>
+      <c r="A2" s="4"/>
+      <c r="B2" s="4"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="5"/>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="3"/>
-      <c r="B3" s="3"/>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="4"/>
+      <c r="A3" s="4"/>
+      <c r="B3" s="4"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="5"/>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="3"/>
-      <c r="B4" s="3"/>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="4"/>
+      <c r="A4" s="4"/>
+      <c r="B4" s="4"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="5"/>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="3"/>
-      <c r="B5" s="3"/>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="4"/>
+      <c r="A5" s="4"/>
+      <c r="B5" s="4"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="5"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="K0It2SysQQbXm21H+fvebU7wjCloQYFjTU2etFzgKkp5+D7ODfOy5ItwElsP7RpjVzy7BoWbKm3NOUsFm0mbDA==" saltValue="1BLbmhPG1fgoSidA1KoJjQ==" spinCount="100000" sheet="1" insertRows="0" deleteRows="0" objects="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="VIaYHzFH3WDG8qPrSA6VnTNp6WwhMwufszxFnV/Zhrj6zzwn6UdEKOM2V9CH+eV1WfSXR8Fekrigi5RMRn1dKw==" saltValue="WqgOid1/E6ZxT7CSDsfvbg==" spinCount="100000" sheet="1" insertRows="0" deleteRows="0" objects="1"/>
   <protectedRanges>
     <protectedRange sqref="A2:F2" name="Range1"/>
   </protectedRanges>
